--- a/rememb_prot/sample.xlsx
+++ b/rememb_prot/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CIODS\virhost_lncr\rememb_prot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A1FCAB-386A-46F6-8832-2CE784E89E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DD3553-96BB-44E1-8131-90FFEA645331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="70">
   <si>
     <t>PMID</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Ontology</t>
   </si>
   <si>
-    <t xml:space="preserve">Transmembrane </t>
-  </si>
-  <si>
     <t>Membrane type</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
   </si>
   <si>
     <t>FRS2</t>
-  </si>
-  <si>
-    <t>Gene ID</t>
   </si>
   <si>
     <t>RefSeq Protein Accession</t>
@@ -581,15 +575,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:Y13"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,8 +641,8 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
+      <c r="T1" t="s">
+        <v>43</v>
       </c>
       <c r="U1" t="s">
         <v>44</v>
@@ -656,827 +650,785 @@
       <c r="V1" t="s">
         <v>45</v>
       </c>
-      <c r="W1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X1" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>18489135</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
       <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="P2" s="3">
         <v>4038</v>
       </c>
       <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2">
-        <v>84803</v>
+      <c r="T2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" t="s">
+        <v>47</v>
       </c>
       <c r="V2" t="s">
         <v>48</v>
       </c>
-      <c r="W2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X2" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>18489135</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
       <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
-      </c>
       <c r="O3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P3" s="3">
         <v>4082</v>
       </c>
       <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3">
-        <v>2767</v>
+      <c r="T3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" t="s">
+        <v>50</v>
       </c>
       <c r="V3" t="s">
         <v>51</v>
       </c>
-      <c r="W3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>18489135</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
       <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
         <v>27</v>
       </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" t="s">
-        <v>28</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P4" s="3">
         <v>6505</v>
       </c>
       <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4">
-        <v>116228</v>
+      <c r="T4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U4" t="s">
+        <v>53</v>
       </c>
       <c r="V4" t="s">
-        <v>54</v>
-      </c>
-      <c r="W4" t="s">
-        <v>55</v>
-      </c>
-      <c r="X4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>18489135</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
       <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
         <v>27</v>
       </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" t="s">
-        <v>28</v>
-      </c>
       <c r="O5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P5" s="3">
         <v>5355</v>
       </c>
       <c r="Q5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U5">
-        <v>10399</v>
+      <c r="T5" t="s">
+        <v>54</v>
+      </c>
+      <c r="U5" t="s">
+        <v>50</v>
       </c>
       <c r="V5" t="s">
-        <v>56</v>
-      </c>
-      <c r="W5" t="s">
-        <v>52</v>
-      </c>
-      <c r="X5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>18489135</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
       <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
         <v>27</v>
       </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" t="s">
-        <v>28</v>
-      </c>
       <c r="O6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P6" s="3">
         <v>54664</v>
       </c>
       <c r="Q6" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U6">
-        <v>25945</v>
+        <v>29</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U6" t="s">
+        <v>56</v>
       </c>
       <c r="V6" t="s">
-        <v>57</v>
-      </c>
-      <c r="W6" t="s">
-        <v>58</v>
-      </c>
-      <c r="X6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>18489135</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>25</v>
       </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
       <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
         <v>27</v>
       </c>
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" t="s">
-        <v>28</v>
-      </c>
       <c r="O7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P7" s="3">
         <v>5284</v>
       </c>
       <c r="Q7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U7">
-        <v>80179</v>
+      <c r="T7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U7" t="s">
+        <v>58</v>
       </c>
       <c r="V7" t="s">
-        <v>59</v>
-      </c>
-      <c r="W7" t="s">
-        <v>60</v>
-      </c>
-      <c r="X7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>18489135</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>23</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>24</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>25</v>
       </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
       <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
         <v>27</v>
       </c>
-      <c r="J8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" t="s">
-        <v>28</v>
-      </c>
       <c r="O8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P8" s="3">
         <v>403313</v>
       </c>
       <c r="Q8" t="s">
-        <v>30</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U8">
-        <v>6490</v>
+        <v>29</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" t="s">
+        <v>59</v>
+      </c>
+      <c r="U8" t="s">
+        <v>60</v>
       </c>
       <c r="V8" t="s">
-        <v>61</v>
-      </c>
-      <c r="W8" t="s">
-        <v>62</v>
-      </c>
-      <c r="X8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>18489135</v>
       </c>
       <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>24</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>25</v>
       </c>
-      <c r="H9" t="s">
-        <v>26</v>
-      </c>
       <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
         <v>27</v>
       </c>
-      <c r="J9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" t="s">
-        <v>28</v>
-      </c>
       <c r="O9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P9" s="3">
         <v>81555</v>
       </c>
       <c r="Q9" t="s">
-        <v>30</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U9">
-        <v>2783</v>
+        <v>29</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" t="s">
+        <v>61</v>
+      </c>
+      <c r="U9" t="s">
+        <v>50</v>
       </c>
       <c r="V9" t="s">
-        <v>63</v>
-      </c>
-      <c r="W9" t="s">
-        <v>52</v>
-      </c>
-      <c r="X9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>18489135</v>
       </c>
       <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>24</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>25</v>
       </c>
-      <c r="H10" t="s">
-        <v>26</v>
-      </c>
       <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
         <v>27</v>
       </c>
-      <c r="J10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" t="s">
-        <v>28</v>
-      </c>
       <c r="O10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P10" s="3">
         <v>1213</v>
       </c>
       <c r="Q10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U10">
-        <v>5818</v>
+      <c r="T10" t="s">
+        <v>62</v>
+      </c>
+      <c r="U10" t="s">
+        <v>63</v>
       </c>
       <c r="V10" t="s">
-        <v>64</v>
-      </c>
-      <c r="W10" t="s">
-        <v>65</v>
-      </c>
-      <c r="X10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>18489135</v>
       </c>
       <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>24</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>25</v>
       </c>
-      <c r="H11" t="s">
-        <v>26</v>
-      </c>
       <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" t="s">
         <v>27</v>
       </c>
-      <c r="J11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" t="s">
-        <v>28</v>
-      </c>
       <c r="O11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P11" s="3">
         <v>5621</v>
       </c>
       <c r="Q11" t="s">
+        <v>29</v>
+      </c>
+      <c r="R11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U11">
-        <v>79143</v>
+      <c r="T11" t="s">
+        <v>64</v>
+      </c>
+      <c r="U11" t="s">
+        <v>65</v>
       </c>
       <c r="V11" t="s">
-        <v>66</v>
-      </c>
-      <c r="W11" t="s">
-        <v>67</v>
-      </c>
-      <c r="X11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>18489135</v>
       </c>
       <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>23</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>24</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>25</v>
       </c>
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
       <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
         <v>27</v>
       </c>
-      <c r="J12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" t="s">
-        <v>28</v>
-      </c>
       <c r="O12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P12" s="3">
         <v>7009</v>
       </c>
       <c r="Q12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U12">
-        <v>58505</v>
+      <c r="T12" t="s">
+        <v>66</v>
+      </c>
+      <c r="U12" t="s">
+        <v>67</v>
       </c>
       <c r="V12" t="s">
-        <v>68</v>
-      </c>
-      <c r="W12" t="s">
-        <v>69</v>
-      </c>
-      <c r="X12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>18489135</v>
       </c>
       <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>22</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>24</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>25</v>
       </c>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
       <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
         <v>27</v>
       </c>
-      <c r="J13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" t="s">
-        <v>28</v>
-      </c>
       <c r="O13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P13" s="3">
         <v>10818</v>
       </c>
       <c r="Q13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U13">
-        <v>2776</v>
+      <c r="T13" t="s">
+        <v>68</v>
+      </c>
+      <c r="U13" t="s">
+        <v>69</v>
       </c>
       <c r="V13" t="s">
-        <v>70</v>
-      </c>
-      <c r="W13" t="s">
-        <v>71</v>
-      </c>
-      <c r="X13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
